--- a/one/src/main/resources/conf/templates/bom-20160426.xlsx
+++ b/one/src/main/resources/conf/templates/bom-20160426.xlsx
@@ -319,17 +319,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,120 +644,121 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="2" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>28</v>
       </c>
     </row>

--- a/one/src/main/resources/conf/templates/bom-20160426.xlsx
+++ b/one/src/main/resources/conf/templates/bom-20160426.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Item</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -167,14 +167,6 @@
   </si>
   <si>
     <t>${item.unitAmount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.totalAmount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.totalPrice}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,7 +630,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -752,14 +744,16 @@
       <c r="K3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="4" t="e">
+        <f>J3*K3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" s="4" t="e">
+        <f>I3*L3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">

--- a/one/src/main/resources/conf/templates/bom-20160426.xlsx
+++ b/one/src/main/resources/conf/templates/bom-20160426.xlsx
@@ -79,12 +79,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Item</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>翊凯贸易有限公司
-物料详细清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Series</t>
@@ -171,6 +166,10 @@
   </si>
   <si>
     <t>${item.remark}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翊凯贸易有限公司物料详细清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,8 +193,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="22"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -203,43 +237,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -247,8 +246,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -308,19 +306,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,7 +628,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -638,7 +636,7 @@
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="73.625" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
@@ -648,9 +646,9 @@
     <col min="14" max="14" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -668,81 +666,81 @@
     </row>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="L3" s="4" t="e">
         <f>J3*K3</f>
@@ -753,7 +751,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">

--- a/one/src/main/resources/conf/templates/bom-20160426.xlsx
+++ b/one/src/main/resources/conf/templates/bom-20160426.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -169,7 +169,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>翊凯贸易有限公司物料详细清单</t>
+    <t>广州翊凯贸易有限公司物料详细清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +628,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
